--- a/api/scripts/data-generation/target-profiles-migration/migration-test-multiform.xlsx
+++ b/api/scripts/data-generation/target-profiles-migration/migration-test-multiform.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="2006" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="2007" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="2008" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t xml:space="preserve">id de sujet</t>
   </si>
@@ -146,17 +148,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.13"/>
   </cols>
@@ -174,7 +176,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -182,7 +184,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -190,7 +192,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -198,13 +200,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -213,17 +215,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.66"/>
   </cols>
@@ -241,7 +243,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -257,15 +259,15 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -273,16 +275,147 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.11"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>